--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H2">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I2">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J2">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>342.2382564448156</v>
+        <v>56.82477133064489</v>
       </c>
       <c r="R2">
-        <v>3080.14430800334</v>
+        <v>511.422941975804</v>
       </c>
       <c r="S2">
-        <v>0.05883191595373621</v>
+        <v>0.05418250925520535</v>
       </c>
       <c r="T2">
-        <v>0.08440017605216381</v>
+        <v>0.07524905587794352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H3">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I3">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J3">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>212.8689320383973</v>
+        <v>111.1380671871713</v>
       </c>
       <c r="R3">
-        <v>1915.820388345576</v>
+        <v>1000.242604684542</v>
       </c>
       <c r="S3">
-        <v>0.03659289072162491</v>
+        <v>0.1059703226773408</v>
       </c>
       <c r="T3">
-        <v>0.05249610469241564</v>
+        <v>0.1471723410776669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H4">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I4">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J4">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>2.683713120999555</v>
+        <v>851.6538965260316</v>
       </c>
       <c r="R4">
-        <v>24.153418088996</v>
+        <v>5109.92337915619</v>
       </c>
       <c r="S4">
-        <v>0.0004613393792346055</v>
+        <v>0.8120533360750741</v>
       </c>
       <c r="T4">
-        <v>0.0006618367631918659</v>
+        <v>0.7518569824118804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,108 +726,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H5">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I5">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J5">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>5135.88321332744</v>
+        <v>1.362637482573667</v>
       </c>
       <c r="R5">
-        <v>30815.29927996464</v>
+        <v>12.263737343163</v>
       </c>
       <c r="S5">
-        <v>0.8828757272593388</v>
+        <v>0.001299276992800167</v>
       </c>
       <c r="T5">
-        <v>0.844381439392713</v>
+        <v>0.001804445168304076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1459843333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.437953</v>
+      </c>
+      <c r="I6">
+        <v>0.007014999181255333</v>
+      </c>
+      <c r="J6">
+        <v>0.007033571563591034</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>38.80310266666667</v>
-      </c>
-      <c r="H6">
-        <v>116.409308</v>
-      </c>
-      <c r="I6">
-        <v>0.9789895780174939</v>
-      </c>
-      <c r="J6">
-        <v>0.9822662217176463</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>1.324608581364444</v>
+        <v>0.409474570899111</v>
       </c>
       <c r="R6">
-        <v>11.92147723228</v>
+        <v>3.685271138092</v>
       </c>
       <c r="S6">
-        <v>0.000227704703559336</v>
+        <v>0.0003904346503819101</v>
       </c>
       <c r="T6">
-        <v>0.0003266648171619378</v>
+        <v>0.0005422384313153817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J7">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>1.287562598729445</v>
+        <v>0.8008516586406667</v>
       </c>
       <c r="R7">
-        <v>11.588063388565</v>
+        <v>7.207664927766</v>
       </c>
       <c r="S7">
-        <v>0.0002213363736144419</v>
+        <v>0.0007636133219764253</v>
       </c>
       <c r="T7">
-        <v>0.0003175288208273972</v>
+        <v>0.001060511636031802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J8">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>0.8008516586406667</v>
+        <v>6.136947068478333</v>
       </c>
       <c r="R8">
-        <v>7.207664927766</v>
+        <v>36.82168241087</v>
       </c>
       <c r="S8">
-        <v>0.0001376691137980804</v>
+        <v>0.005851588727066489</v>
       </c>
       <c r="T8">
-        <v>0.0001974998987053295</v>
+        <v>0.005417818814601666</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,54 +980,54 @@
         <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J9">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>0.01009661712344444</v>
+        <v>0.009819052244333333</v>
       </c>
       <c r="R9">
-        <v>0.09086955411099999</v>
+        <v>0.08837147019899999</v>
       </c>
       <c r="S9">
-        <v>1.73564269580516E-06</v>
+        <v>9.362481830508017E-06</v>
       </c>
       <c r="T9">
-        <v>2.489950339281866E-06</v>
+        <v>1.30026816421841E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,60 +1036,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1459843333333333</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H10">
-        <v>0.437953</v>
+        <v>0.721574</v>
       </c>
       <c r="I10">
-        <v>0.003683136941776988</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J10">
-        <v>0.003695464271636322</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>19.32212723854</v>
+        <v>0.6746527687262223</v>
       </c>
       <c r="R10">
-        <v>115.93276343124</v>
+        <v>6.071874918536</v>
       </c>
       <c r="S10">
-        <v>0.003321539145137854</v>
+        <v>0.0006432824810303307</v>
       </c>
       <c r="T10">
-        <v>0.003176716629278105</v>
+        <v>0.0008933953046056662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1459843333333333</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H11">
-        <v>0.437953</v>
+        <v>0.721574</v>
       </c>
       <c r="I11">
-        <v>0.003683136941776988</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J11">
-        <v>0.003695464271636322</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.004983418525555555</v>
+        <v>1.319488015225333</v>
       </c>
       <c r="R11">
-        <v>0.04485076672999999</v>
+        <v>11.875392137028</v>
       </c>
       <c r="S11">
-        <v>8.566665308062984E-07</v>
+        <v>0.001258133907501073</v>
       </c>
       <c r="T11">
-        <v>1.22897248620808E-06</v>
+        <v>0.00174730535755666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H12">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I12">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J12">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>2.088959355145</v>
+        <v>10.11127094457667</v>
       </c>
       <c r="R12">
-        <v>18.800634196305</v>
+        <v>60.66762566746001</v>
       </c>
       <c r="S12">
-        <v>0.000359099191567084</v>
+        <v>0.009641112822938251</v>
       </c>
       <c r="T12">
-        <v>0.0005151631473685979</v>
+        <v>0.0089264309031503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,232 +1222,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H13">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I13">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J13">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>1.299312799278</v>
+        <v>0.01617792960466667</v>
       </c>
       <c r="R13">
-        <v>11.693815193502</v>
+        <v>0.145601366442</v>
       </c>
       <c r="S13">
-        <v>0.0002233562729041743</v>
+        <v>1.542568144154052E-05</v>
       </c>
       <c r="T13">
-        <v>0.000320426565238698</v>
+        <v>2.142329657126987E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.2368469999999999</v>
+        <v>0.164851</v>
       </c>
       <c r="H14">
-        <v>0.7105409999999999</v>
+        <v>0.329702</v>
       </c>
       <c r="I14">
-        <v>0.00597557227772652</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J14">
-        <v>0.005995572308062152</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>0.01638089116299999</v>
+        <v>0.4623940867213333</v>
       </c>
       <c r="R14">
-        <v>0.147428020467</v>
+        <v>2.774364520328</v>
       </c>
       <c r="S14">
-        <v>2.815930697403818E-06</v>
+        <v>0.0004408934923389605</v>
       </c>
       <c r="T14">
-        <v>4.039729843210746E-06</v>
+        <v>0.00040821068763439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.2368469999999999</v>
+        <v>0.164851</v>
       </c>
       <c r="H15">
-        <v>0.7105409999999999</v>
+        <v>0.329702</v>
       </c>
       <c r="I15">
-        <v>0.00597557227772652</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J15">
-        <v>0.005995572308062152</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>31.34848627637999</v>
+        <v>0.904351814774</v>
       </c>
       <c r="R15">
-        <v>188.09091765828</v>
+        <v>5.426110888644</v>
       </c>
       <c r="S15">
-        <v>0.00538891101493858</v>
+        <v>0.000862300884394917</v>
       </c>
       <c r="T15">
-        <v>0.005153948963664809</v>
+        <v>0.0007983797517609364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.2368469999999999</v>
+        <v>0.164851</v>
       </c>
       <c r="H16">
-        <v>0.7105409999999999</v>
+        <v>0.329702</v>
       </c>
       <c r="I16">
-        <v>0.00597557227772652</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J16">
-        <v>0.005995572308062152</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>0.008085167089999998</v>
+        <v>6.930071454145</v>
       </c>
       <c r="R16">
-        <v>0.07276650380999998</v>
+        <v>27.72028581658</v>
       </c>
       <c r="S16">
-        <v>1.389867619277954E-06</v>
+        <v>0.006607834082051986</v>
       </c>
       <c r="T16">
-        <v>1.993901946836247E-06</v>
+        <v>0.004078669854554709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,619 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H17">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I17">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J17">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>3.498418414153333</v>
+        <v>0.011088043111</v>
       </c>
       <c r="R17">
-        <v>20.99051048492</v>
+        <v>0.066528258666</v>
       </c>
       <c r="S17">
-        <v>0.0006013899797483903</v>
+        <v>1.057246662706553E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005751687593820741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.396652</v>
-      </c>
-      <c r="H18">
-        <v>0.793304</v>
-      </c>
-      <c r="I18">
-        <v>0.01000740011528447</v>
-      </c>
-      <c r="J18">
-        <v>0.006693929687765996</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>5.485874</v>
-      </c>
-      <c r="N18">
-        <v>16.457622</v>
-      </c>
-      <c r="O18">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P18">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q18">
-        <v>2.175982893848</v>
-      </c>
-      <c r="R18">
-        <v>13.055897363088</v>
-      </c>
-      <c r="S18">
-        <v>0.0003740588327485109</v>
-      </c>
-      <c r="T18">
-        <v>0.0003577494837175056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.396652</v>
-      </c>
-      <c r="H19">
-        <v>0.793304</v>
-      </c>
-      <c r="I19">
-        <v>0.01000740011528447</v>
-      </c>
-      <c r="J19">
-        <v>0.006693929687765996</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.207487</v>
-      </c>
-      <c r="O19">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P19">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q19">
-        <v>0.02743337784133333</v>
-      </c>
-      <c r="R19">
-        <v>0.164600267048</v>
-      </c>
-      <c r="S19">
-        <v>4.715890608648703E-06</v>
-      </c>
-      <c r="T19">
-        <v>4.510272937857855E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.396652</v>
-      </c>
-      <c r="H20">
-        <v>0.793304</v>
-      </c>
-      <c r="I20">
-        <v>0.01000740011528447</v>
-      </c>
-      <c r="J20">
-        <v>0.006693929687765996</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>132.35754</v>
-      </c>
-      <c r="N20">
-        <v>264.71508</v>
-      </c>
-      <c r="O20">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P20">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q20">
-        <v>52.49988295608</v>
-      </c>
-      <c r="R20">
-        <v>209.99953182432</v>
-      </c>
-      <c r="S20">
-        <v>0.00902490777547285</v>
-      </c>
-      <c r="T20">
-        <v>0.005754275022371894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.396652</v>
-      </c>
-      <c r="H21">
-        <v>0.793304</v>
-      </c>
-      <c r="I21">
-        <v>0.01000740011528447</v>
-      </c>
-      <c r="J21">
-        <v>0.006693929687765996</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.10241</v>
-      </c>
-      <c r="O21">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P21">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q21">
-        <v>0.01354037710666666</v>
-      </c>
-      <c r="R21">
-        <v>0.08124226263999999</v>
-      </c>
-      <c r="S21">
-        <v>2.327636706066952E-06</v>
-      </c>
-      <c r="T21">
-        <v>2.22614935666342E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.053283</v>
-      </c>
-      <c r="H22">
-        <v>0.159849</v>
-      </c>
-      <c r="I22">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J22">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N22">
-        <v>26.459605</v>
-      </c>
-      <c r="O22">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P22">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q22">
-        <v>0.4699490444050001</v>
-      </c>
-      <c r="R22">
-        <v>4.229541399645001</v>
-      </c>
-      <c r="S22">
-        <v>8.078583315080595E-05</v>
-      </c>
-      <c r="T22">
-        <v>0.0001158952318637813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.053283</v>
-      </c>
-      <c r="H23">
-        <v>0.159849</v>
-      </c>
-      <c r="I23">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J23">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.485874</v>
-      </c>
-      <c r="N23">
-        <v>16.457622</v>
-      </c>
-      <c r="O23">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P23">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q23">
-        <v>0.292303824342</v>
-      </c>
-      <c r="R23">
-        <v>2.630734419078</v>
-      </c>
-      <c r="S23">
-        <v>5.02480178729438E-05</v>
-      </c>
-      <c r="T23">
-        <v>7.208572908085622E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.053283</v>
-      </c>
-      <c r="H24">
-        <v>0.159849</v>
-      </c>
-      <c r="I24">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J24">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.207487</v>
-      </c>
-      <c r="O24">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P24">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q24">
-        <v>0.003685176607</v>
-      </c>
-      <c r="R24">
-        <v>0.033166589463</v>
-      </c>
-      <c r="S24">
-        <v>6.334943459269809E-07</v>
-      </c>
-      <c r="T24">
-        <v>9.088100133664274E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.053283</v>
-      </c>
-      <c r="H25">
-        <v>0.159849</v>
-      </c>
-      <c r="I25">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J25">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>132.35754</v>
-      </c>
-      <c r="N25">
-        <v>264.71508</v>
-      </c>
-      <c r="O25">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P25">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q25">
-        <v>7.05240680382</v>
-      </c>
-      <c r="R25">
-        <v>42.31444082292001</v>
-      </c>
-      <c r="S25">
-        <v>0.001212332626585823</v>
-      </c>
-      <c r="T25">
-        <v>0.001159473679763527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.053283</v>
-      </c>
-      <c r="H26">
-        <v>0.159849</v>
-      </c>
-      <c r="I26">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J26">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.10241</v>
-      </c>
-      <c r="O26">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P26">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q26">
-        <v>0.00181890401</v>
-      </c>
-      <c r="R26">
-        <v>0.01637013609</v>
-      </c>
-      <c r="S26">
-        <v>3.126757626568513E-07</v>
-      </c>
-      <c r="T26">
-        <v>4.48564167725476E-07</v>
+        <v>9.788744780356301E-06</v>
       </c>
     </row>
   </sheetData>
